--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Python Scripts\Whatsapp_Marketing_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2151DC-450C-4B95-827E-CEE01557A42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E539485A-9CFE-478B-8E19-1212D2B0707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5235" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{A5F6146E-D5F3-4CC7-A81E-4BBAE183E992}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,33 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2293B08A-CCE1-4A52-8523-4E9C4E2120AF}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>51988590677</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>51888888888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>51988590677</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>